--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2861.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2861.xlsx
@@ -354,7 +354,7 @@
         <v>2.243014960902015</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.277970548037232</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2861.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2861.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.19453856949471</v>
+        <v>1.203425049781799</v>
       </c>
       <c r="B1">
-        <v>2.243014960902015</v>
+        <v>1.394992709159851</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.611523389816284</v>
       </c>
       <c r="D1">
-        <v>2.277970548037232</v>
+        <v>3.645560503005981</v>
       </c>
       <c r="E1">
-        <v>1.212347485995769</v>
+        <v>0.9987479448318481</v>
       </c>
     </row>
   </sheetData>
